--- a/CheckSafronova.xlsx
+++ b/CheckSafronova.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="198">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -289,31 +289,34 @@
     <t>Блоки с новостями на странице "Панель управления" полностью видимы и есть возможность проскроллить вниз</t>
   </si>
   <si>
+    <t>Видимость кнопки "Обновить" на странице "Панель управления" или возможность свайпнуть вниз для обновления страницы</t>
+  </si>
+  <si>
+    <t>Видимость ссылок на странице с информацией о приложении</t>
+  </si>
+  <si>
+    <t>Видимость кнопки "Назад" в виде стрелки влево вверху страницы "О приложении"</t>
+  </si>
+  <si>
+    <t>Навигация по приложению с использованием крупного шрифта</t>
+  </si>
+  <si>
+    <t>122,123,124</t>
+  </si>
+  <si>
+    <t>125,126,127</t>
+  </si>
+  <si>
+    <t>133.134,135,136</t>
+  </si>
+  <si>
+    <t>137,138,139</t>
+  </si>
+  <si>
+    <t>141,142,143</t>
+  </si>
+  <si>
     <t>Видимость кнопки "Обновить" на странице "Новости"</t>
-  </si>
-  <si>
-    <t>Видимость ссылок на странице с информацией о приложении</t>
-  </si>
-  <si>
-    <t>Видимость кнопки "Назад" в виде стрелки влево вверху страницы "О приложении"</t>
-  </si>
-  <si>
-    <t>Навигация по приложению с использованием крупного шрифта</t>
-  </si>
-  <si>
-    <t>122,123,124</t>
-  </si>
-  <si>
-    <t>125,126,127</t>
-  </si>
-  <si>
-    <t>133.134,135,136</t>
-  </si>
-  <si>
-    <t>137,138,139</t>
-  </si>
-  <si>
-    <t>141,142,143</t>
   </si>
   <si>
     <t>Навигация по приложению при темной теме телефона</t>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="65">
       <c r="A65" s="10"/>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -2261,7 +2264,7 @@
     <row r="83">
       <c r="A83" s="10"/>
       <c r="B83" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>7</v>
@@ -2305,10 +2308,10 @@
     </row>
     <row r="86">
       <c r="A86" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>7</v>
@@ -2323,7 +2326,7 @@
     <row r="87">
       <c r="A87" s="10"/>
       <c r="B87" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>7</v>
@@ -2338,7 +2341,7 @@
     <row r="88">
       <c r="A88" s="10"/>
       <c r="B88" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>17</v>
@@ -2353,7 +2356,7 @@
     <row r="89">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>7</v>
@@ -2368,7 +2371,7 @@
     <row r="90">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>7</v>
@@ -2383,7 +2386,7 @@
     <row r="91">
       <c r="A91" s="10"/>
       <c r="B91" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>60</v>
@@ -2398,7 +2401,7 @@
     <row r="92">
       <c r="A92" s="10"/>
       <c r="B92" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>17</v>
@@ -2413,7 +2416,7 @@
     <row r="93">
       <c r="A93" s="10"/>
       <c r="B93" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>7</v>
@@ -2428,7 +2431,7 @@
     <row r="94">
       <c r="A94" s="10"/>
       <c r="B94" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>7</v>
@@ -2443,7 +2446,7 @@
     <row r="95">
       <c r="A95" s="10"/>
       <c r="B95" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>17</v>
@@ -2452,13 +2455,13 @@
         <v>8</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="10"/>
       <c r="B96" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>17</v>
@@ -2473,7 +2476,7 @@
     <row r="97">
       <c r="A97" s="10"/>
       <c r="B97" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>17</v>
@@ -2503,7 +2506,7 @@
     <row r="99">
       <c r="A99" s="10"/>
       <c r="B99" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>7</v>
@@ -2512,7 +2515,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100">
@@ -2563,7 +2566,7 @@
     <row r="103">
       <c r="A103" s="10"/>
       <c r="B103" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>7</v>
@@ -2578,7 +2581,7 @@
     <row r="104">
       <c r="A104" s="10"/>
       <c r="B104" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>17</v>
@@ -2593,7 +2596,7 @@
     <row r="105">
       <c r="A105" s="10"/>
       <c r="B105" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>17</v>
@@ -2608,7 +2611,7 @@
     <row r="106">
       <c r="A106" s="10"/>
       <c r="B106" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>17</v>
@@ -2653,7 +2656,7 @@
     <row r="109">
       <c r="A109" s="10"/>
       <c r="B109" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>17</v>
@@ -2668,7 +2671,7 @@
     <row r="110">
       <c r="A110" s="10"/>
       <c r="B110" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>17</v>
@@ -2683,7 +2686,7 @@
     <row r="111">
       <c r="A111" s="10"/>
       <c r="B111" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>17</v>
@@ -2698,7 +2701,7 @@
     <row r="112">
       <c r="A112" s="12"/>
       <c r="B112" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>17</v>
@@ -2712,10 +2715,10 @@
     </row>
     <row r="113">
       <c r="A113" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>60</v>
@@ -2730,7 +2733,7 @@
     <row r="114">
       <c r="A114" s="10"/>
       <c r="B114" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>7</v>
@@ -2745,7 +2748,7 @@
     <row r="115">
       <c r="A115" s="10"/>
       <c r="B115" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>17</v>
@@ -2760,7 +2763,7 @@
     <row r="116">
       <c r="A116" s="10"/>
       <c r="B116" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>7</v>
@@ -2775,7 +2778,7 @@
     <row r="117">
       <c r="A117" s="10"/>
       <c r="B117" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>60</v>
@@ -2790,7 +2793,7 @@
     <row r="118">
       <c r="A118" s="10"/>
       <c r="B118" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>7</v>
@@ -2799,13 +2802,13 @@
         <v>8</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="10"/>
       <c r="B119" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>17</v>
@@ -2820,7 +2823,7 @@
     <row r="120">
       <c r="A120" s="10"/>
       <c r="B120" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>7</v>
@@ -2835,7 +2838,7 @@
     <row r="121">
       <c r="A121" s="10"/>
       <c r="B121" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>17</v>
@@ -2850,7 +2853,7 @@
     <row r="122">
       <c r="A122" s="10"/>
       <c r="B122" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>17</v>
@@ -2865,7 +2868,7 @@
     <row r="123">
       <c r="A123" s="10"/>
       <c r="B123" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>17</v>
@@ -2880,7 +2883,7 @@
     <row r="124">
       <c r="A124" s="10"/>
       <c r="B124" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>60</v>
@@ -2895,7 +2898,7 @@
     <row r="125">
       <c r="A125" s="10"/>
       <c r="B125" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>60</v>
@@ -2910,7 +2913,7 @@
     <row r="126">
       <c r="A126" s="10"/>
       <c r="B126" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>17</v>
@@ -2925,7 +2928,7 @@
     <row r="127">
       <c r="A127" s="10"/>
       <c r="B127" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>17</v>
@@ -2940,7 +2943,7 @@
     <row r="128">
       <c r="A128" s="10"/>
       <c r="B128" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>17</v>
@@ -2955,7 +2958,7 @@
     <row r="129">
       <c r="A129" s="10"/>
       <c r="B129" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>17</v>
@@ -2964,13 +2967,13 @@
         <v>8</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>17</v>
@@ -2985,7 +2988,7 @@
     <row r="131">
       <c r="A131" s="10"/>
       <c r="B131" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>7</v>
@@ -3000,7 +3003,7 @@
     <row r="132">
       <c r="A132" s="10"/>
       <c r="B132" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>7</v>
@@ -3015,7 +3018,7 @@
     <row r="133">
       <c r="A133" s="10"/>
       <c r="B133" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>7</v>
@@ -3030,7 +3033,7 @@
     <row r="134">
       <c r="A134" s="10"/>
       <c r="B134" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>17</v>
@@ -3045,7 +3048,7 @@
     <row r="135">
       <c r="A135" s="12"/>
       <c r="B135" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>17</v>
@@ -3059,10 +3062,10 @@
     </row>
     <row r="136">
       <c r="A136" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>7</v>
@@ -3077,7 +3080,7 @@
     <row r="137">
       <c r="A137" s="10"/>
       <c r="B137" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>7</v>
@@ -3092,7 +3095,7 @@
     <row r="138">
       <c r="A138" s="10"/>
       <c r="B138" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>17</v>
@@ -3107,7 +3110,7 @@
     <row r="139">
       <c r="A139" s="10"/>
       <c r="B139" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>17</v>
@@ -3122,7 +3125,7 @@
     <row r="140">
       <c r="A140" s="12"/>
       <c r="B140" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>17</v>
@@ -3136,10 +3139,10 @@
     </row>
     <row r="141">
       <c r="A141" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>7</v>
@@ -3154,7 +3157,7 @@
     <row r="142">
       <c r="A142" s="10"/>
       <c r="B142" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>7</v>
@@ -3169,7 +3172,7 @@
     <row r="143">
       <c r="A143" s="10"/>
       <c r="B143" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>7</v>
@@ -3184,7 +3187,7 @@
     <row r="144">
       <c r="A144" s="10"/>
       <c r="B144" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>7</v>
@@ -3199,7 +3202,7 @@
     <row r="145">
       <c r="A145" s="10"/>
       <c r="B145" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>7</v>
@@ -3214,7 +3217,7 @@
     <row r="146">
       <c r="A146" s="10"/>
       <c r="B146" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>7</v>
@@ -3229,7 +3232,7 @@
     <row r="147">
       <c r="A147" s="10"/>
       <c r="B147" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>17</v>
@@ -3244,7 +3247,7 @@
     <row r="148">
       <c r="A148" s="12"/>
       <c r="B148" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>7</v>
@@ -3258,10 +3261,10 @@
     </row>
     <row r="149">
       <c r="A149" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>7</v>
@@ -3276,7 +3279,7 @@
     <row r="150">
       <c r="A150" s="10"/>
       <c r="B150" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>7</v>
@@ -3291,7 +3294,7 @@
     <row r="151">
       <c r="A151" s="12"/>
       <c r="B151" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>7</v>
@@ -3305,10 +3308,10 @@
     </row>
     <row r="152" ht="19.5" customHeight="1">
       <c r="A152" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>7</v>
@@ -3323,7 +3326,7 @@
     <row r="153" ht="17.25" customHeight="1">
       <c r="A153" s="12"/>
       <c r="B153" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>7</v>
@@ -3337,10 +3340,10 @@
     </row>
     <row r="154">
       <c r="A154" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>17</v>
@@ -3355,7 +3358,7 @@
     <row r="155">
       <c r="A155" s="12"/>
       <c r="B155" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>17</v>
@@ -3369,10 +3372,10 @@
     </row>
     <row r="156">
       <c r="A156" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>17</v>
@@ -3387,7 +3390,7 @@
     <row r="157">
       <c r="A157" s="10"/>
       <c r="B157" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>17</v>
@@ -3402,7 +3405,7 @@
     <row r="158">
       <c r="A158" s="10"/>
       <c r="B158" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>17</v>
@@ -3417,7 +3420,7 @@
     <row r="159">
       <c r="A159" s="10"/>
       <c r="B159" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>17</v>
@@ -3432,7 +3435,7 @@
     <row r="160">
       <c r="A160" s="10"/>
       <c r="B160" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>17</v>
@@ -3447,7 +3450,7 @@
     <row r="161">
       <c r="A161" s="10"/>
       <c r="B161" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>17</v>
@@ -3462,7 +3465,7 @@
     <row r="162">
       <c r="A162" s="10"/>
       <c r="B162" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>17</v>
@@ -3477,7 +3480,7 @@
     <row r="163">
       <c r="A163" s="10"/>
       <c r="B163" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>17</v>
@@ -3492,7 +3495,7 @@
     <row r="164">
       <c r="A164" s="12"/>
       <c r="B164" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>17</v>
@@ -3506,7 +3509,7 @@
     </row>
     <row r="165">
       <c r="A165" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>10</v>
@@ -3518,7 +3521,7 @@
         <v>8</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166">
@@ -3533,7 +3536,7 @@
         <v>8</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167">
@@ -3593,7 +3596,7 @@
         <v>8</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171">
@@ -3608,7 +3611,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172">
@@ -3638,7 +3641,7 @@
         <v>8</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174">
@@ -3734,7 +3737,7 @@
     <row r="180">
       <c r="A180" s="10"/>
       <c r="B180" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>7</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="183">
       <c r="A183" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>10</v>
@@ -3790,7 +3793,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184">
@@ -3805,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185">
@@ -3865,7 +3868,7 @@
         <v>8</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189">
@@ -3880,7 +3883,7 @@
         <v>8</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190">
@@ -3910,7 +3913,7 @@
         <v>8</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="192">
@@ -4006,7 +4009,7 @@
     <row r="198">
       <c r="A198" s="10"/>
       <c r="B198" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>7</v>
